--- a/bh3/497516989958148820_2021-03-02_17-00-01.xlsx
+++ b/bh3/497516989958148820_2021-03-02_17-00-01.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:22:38</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44272.89071759259</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-06 19:43:42</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44261.82201388889</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -677,10 +689,8 @@
           <t>4218700243</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:58:18</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44259.79048611111</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -744,10 +754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-04 09:50:09</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44259.40982638889</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -807,10 +815,8 @@
           <t>4209531850</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-04 01:43:45</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44259.07204861111</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -883,10 +889,8 @@
           <t>4213797568</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:08:33</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44258.71427083333</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -963,10 +967,8 @@
           <t>4213794968</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-03 17:07:29</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44258.71353009259</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1043,10 +1045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-03 13:58:14</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44258.58210648148</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1110,10 +1110,8 @@
           <t>4213124322</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-03 13:32:08</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44258.56398148148</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1181,10 +1179,8 @@
           <t>4213113646</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-03 13:29:40</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44258.56226851852</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1252,10 +1248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-03 10:45:45</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44258.4484375</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1315,10 +1309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-03 09:14:59</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44258.38540509259</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1390,10 +1382,8 @@
           <t>4211547624</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-03 00:21:33</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44258.01496527778</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1461,10 +1451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-02 23:26:27</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44257.97670138889</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1532,10 +1520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-02 23:17:01</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44257.97015046296</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1595,10 +1581,8 @@
           <t>4211212642</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-02 23:13:19</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44257.96758101852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1666,10 +1650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-02 23:07:15</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44257.96336805556</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1742,10 +1724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-02 22:55:49</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44257.95542824074</v>
       </c>
       <c r="I19" t="n">
         <v>13</v>
@@ -1805,10 +1785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-02 22:21:22</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44257.93150462963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1880,10 +1858,8 @@
           <t>4209421120</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-02 21:38:50</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44257.9019675926</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1951,10 +1927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-02 21:20:49</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44257.88945601852</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2022,10 +1996,8 @@
           <t>4210456710</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-02 20:52:23</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44257.86971064815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2101,10 +2073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-02 19:55:37</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44257.83028935185</v>
       </c>
       <c r="I24" t="n">
         <v>5</v>
@@ -2169,10 +2139,8 @@
           <t>4210124386</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-02 19:44:50</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44257.82280092593</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2250,10 +2218,8 @@
           <t>4209924881</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-02 19:39:22</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44257.81900462963</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2325,10 +2291,8 @@
           <t>4209411838</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-02 19:15:00</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44257.80208333334</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2396,10 +2360,8 @@
           <t>4209531850</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-02 19:11:28</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44257.79962962963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2463,10 +2425,8 @@
           <t>4209963783</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-02 19:11:14</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44257.79946759259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2538,10 +2498,8 @@
           <t>4209924881</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-02 19:02:53</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44257.79366898148</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2605,10 +2563,8 @@
           <t>4209421120</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-02 19:02:47</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44257.79359953704</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2676,10 +2632,8 @@
           <t>4209421120</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-02 18:48:21</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44257.78357638889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2747,10 +2701,8 @@
           <t>4209696887</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-02 18:11:51</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44257.75822916667</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2822,10 +2774,8 @@
           <t>4209666487</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-02 18:04:51</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44257.75336805556</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2893,10 +2843,8 @@
           <t>4209531850</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-02 18:04:30</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44257.753125</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2964,10 +2912,8 @@
           <t>4209620409</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:54:08</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44257.74592592593</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3044,10 +2990,8 @@
           <t>4209602811</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:52:06</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44257.74451388889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3124,10 +3068,8 @@
           <t>4209595974</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:50:21</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44257.74329861111</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3195,10 +3137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:46:54</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44257.74090277778</v>
       </c>
       <c r="I39" t="n">
         <v>23</v>
@@ -3262,10 +3202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:46:26</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44257.74057870371</v>
       </c>
       <c r="I40" t="n">
         <v>8</v>
@@ -3333,10 +3271,8 @@
           <t>4209566133</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:43:13</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44257.7383449074</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3413,10 +3349,8 @@
           <t>4209539014</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:38:00</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44257.73472222222</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3484,10 +3418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:36:28</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44257.73365740741</v>
       </c>
       <c r="I43" t="n">
         <v>8</v>
@@ -3551,10 +3483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:34:32</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44257.73231481481</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3622,10 +3552,8 @@
           <t>4209531850</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:33:46</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44257.73178240741</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
@@ -3689,10 +3617,8 @@
           <t>4209499204</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:28:02</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44257.72780092592</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3760,10 +3686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:26:44</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44257.72689814815</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -3831,10 +3755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:25:16</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44257.72587962963</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -3898,10 +3820,8 @@
           <t>4209411838</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:21:16</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44257.72310185185</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3965,10 +3885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:20:25</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44257.72251157407</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4040,10 +3958,8 @@
           <t>4209411838</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:18:47</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44257.72137731482</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -4107,10 +4023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:16:32</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44257.71981481482</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4182,10 +4096,8 @@
           <t>4209461006</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:16:28</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44257.71976851852</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -4262,10 +4174,8 @@
           <t>4209411838</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:15:19</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44257.71896990741</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4333,10 +4243,8 @@
           <t>4209411838</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:14:19</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44257.71827546296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4412,10 +4320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:13:29</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44257.71769675926</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4479,10 +4385,8 @@
           <t>4209444732</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:12:49</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44257.7172337963</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4550,10 +4454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:12:44</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44257.71717592593</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4625,10 +4527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:12:26</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44257.71696759259</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4704,10 +4604,8 @@
           <t>4209441719</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:11:16</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44257.71615740741</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4779,10 +4677,8 @@
           <t>4209441719</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:11:08</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44257.71606481481</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4858,10 +4754,8 @@
           <t>4209441719</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:10:24</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44257.71555555556</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4933,10 +4827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:09:13</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44257.7147337963</v>
       </c>
       <c r="I63" t="n">
         <v>8</v>
@@ -5000,10 +4892,8 @@
           <t>4209411838</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:08:30</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44257.71423611111</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5067,10 +4957,8 @@
           <t>4209411838</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:07:31</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44257.71355324074</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5142,10 +5030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:07:10</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44257.71331018519</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5217,10 +5103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:07:07</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44257.71327546296</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5284,10 +5168,8 @@
           <t>4209421120</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:05:37</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44257.71223379629</v>
       </c>
       <c r="I68" t="n">
         <v>9</v>
@@ -5355,10 +5237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:04:52</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44257.71171296296</v>
       </c>
       <c r="I69" t="n">
         <v>27</v>
@@ -5430,10 +5310,8 @@
           <t>4209411838</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:04:43</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44257.71160879629</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5497,10 +5375,8 @@
           <t>4209409579</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:04:22</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44257.71136574074</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5576,10 +5452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:03:46</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44257.71094907408</v>
       </c>
       <c r="I72" t="n">
         <v>116</v>
@@ -5643,10 +5517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:02:47</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44257.71026620371</v>
       </c>
       <c r="I73" t="n">
         <v>6</v>
@@ -5721,10 +5593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:02:40</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44257.71018518518</v>
       </c>
       <c r="I74" t="n">
         <v>19</v>
@@ -5792,10 +5662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:02:38</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44257.71016203704</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5867,10 +5735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:02:25</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44257.71001157408</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5946,10 +5812,8 @@
           <t>4209411838</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:02:20</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44257.70995370371</v>
       </c>
       <c r="I77" t="n">
         <v>10</v>
@@ -6013,10 +5877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:01:26</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44257.70932870371</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6081,10 +5943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:01:11</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44257.70915509259</v>
       </c>
       <c r="I79" t="n">
         <v>279</v>
@@ -6152,10 +6012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:01:02</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44257.70905092593</v>
       </c>
       <c r="I80" t="n">
         <v>4</v>
@@ -6234,10 +6092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:00:40</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44257.7087962963</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
